--- a/backend/knowledge_base/finance/dummy_sales_data_NEW.xlsx
+++ b/backend/knowledge_base/finance/dummy_sales_data_NEW.xlsx
@@ -8,19 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DBA908-F011-488F-83A2-9B091B64CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8474352-AB28-42B8-BC5C-72325C709961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$G$201</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="21" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="32">
   <si>
     <t>Supplier_ID</t>
   </si>
@@ -78,12 +98,62 @@
   <si>
     <t>Alpha Foods</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Sales</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,16 +179,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -129,6 +220,1945 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pablo Leiva" refreshedDate="46069.505026967592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="200" xr:uid="{C646EBFB-F7E1-400B-BBCF-096918C3EFB1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G201" sheet="SalesData"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Supplier_ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="1020"/>
+    </cacheField>
+    <cacheField name="Supplier_Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Supplier_Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Frozen"/>
+        <s v="Bakery"/>
+        <s v="Dairy"/>
+        <s v="Beverages"/>
+        <s v="Produce"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2023" maxValue="2025" count="3">
+        <n v="2025"/>
+        <n v="2023"/>
+        <n v="2024"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="520.04" maxValue="14976.11"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="200">
+  <r>
+    <n v="1014"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="May"/>
+    <x v="0"/>
+    <n v="10722.14"/>
+  </r>
+  <r>
+    <n v="1000"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="March"/>
+    <x v="0"/>
+    <n v="9076.59"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="April"/>
+    <x v="1"/>
+    <n v="10190.549999999999"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="March"/>
+    <x v="0"/>
+    <n v="9317.3700000000008"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="March"/>
+    <x v="2"/>
+    <n v="5789.49"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="March"/>
+    <x v="2"/>
+    <n v="10453.66"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="March"/>
+    <x v="2"/>
+    <n v="6691.13"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="April"/>
+    <x v="1"/>
+    <n v="6546.8"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="November"/>
+    <x v="2"/>
+    <n v="11913.68"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="November"/>
+    <x v="2"/>
+    <n v="12160.76"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="November"/>
+    <x v="1"/>
+    <n v="2331.42"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="November"/>
+    <x v="0"/>
+    <n v="11296.31"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="April"/>
+    <x v="1"/>
+    <n v="599.33000000000004"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="5755.96"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="May"/>
+    <x v="0"/>
+    <n v="10199.200000000001"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="May"/>
+    <x v="1"/>
+    <n v="4248.8100000000004"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="May"/>
+    <x v="2"/>
+    <n v="10736.75"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="May"/>
+    <x v="0"/>
+    <n v="4572.18"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="May"/>
+    <x v="1"/>
+    <n v="10307.5"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="May"/>
+    <x v="1"/>
+    <n v="4871.32"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="May"/>
+    <x v="0"/>
+    <n v="2564.56"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="May"/>
+    <x v="1"/>
+    <n v="9403.9699999999993"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="May"/>
+    <x v="1"/>
+    <n v="6062.31"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="7439.04"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="January"/>
+    <x v="0"/>
+    <n v="14499.79"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="1010.9"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="2136.4899999999998"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="December"/>
+    <x v="1"/>
+    <n v="5661.67"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="November"/>
+    <x v="1"/>
+    <n v="3889.54"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="14641.77"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="4015.59"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="7751.75"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="13283.01"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="11792.57"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="January"/>
+    <x v="2"/>
+    <n v="3876.22"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="10656.49"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="14147.26"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="7412.42"/>
+  </r>
+  <r>
+    <n v="1000"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="2501.5"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="9027.2000000000007"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="9863.32"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="9008.5300000000007"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="9143.5300000000007"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="8677.9699999999993"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="10609.11"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="11859.66"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="8063.46"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="1926.66"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="11241.85"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="9854.98"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="3957.53"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="14820.02"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="3558.4"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="14710.2"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="8546.17"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="12100.55"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="10994.36"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="9249.48"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="7355.46"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="3709.73"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="December"/>
+    <x v="2"/>
+    <n v="6038.75"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="December"/>
+    <x v="2"/>
+    <n v="13319.88"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="December"/>
+    <x v="0"/>
+    <n v="10786.15"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="December"/>
+    <x v="1"/>
+    <n v="669.72"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="December"/>
+    <x v="0"/>
+    <n v="3831.05"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="December"/>
+    <x v="2"/>
+    <n v="12549.85"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="December"/>
+    <x v="2"/>
+    <n v="6268.05"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="3522.89"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="6049.59"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="12775.82"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="December"/>
+    <x v="0"/>
+    <n v="1307.6400000000001"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="November"/>
+    <x v="2"/>
+    <n v="7731.72"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="14206.22"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="2655.38"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="14912.49"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="6084.36"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="11541.36"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="January"/>
+    <x v="2"/>
+    <n v="9468.66"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="14224.76"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="12140.72"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="2"/>
+    <n v="14809.53"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="9894.4699999999993"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="4784.6000000000004"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="14570.05"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="10754.25"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="11888.66"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="4858.49"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="3604.69"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="10997.14"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="12039.29"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="13867.7"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="744.14"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="1824.85"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="14167.23"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="2336.56"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="1463.31"/>
+  </r>
+  <r>
+    <n v="1000"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="2871.25"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="520.04"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="4296.55"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="January"/>
+    <x v="0"/>
+    <n v="3395.24"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="13915.24"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="4110.5200000000004"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="December"/>
+    <x v="1"/>
+    <n v="14216.78"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="November"/>
+    <x v="0"/>
+    <n v="14381.45"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="4468.95"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="9915.8700000000008"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="9808.14"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="6233.71"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="13007.58"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="January"/>
+    <x v="0"/>
+    <n v="7898.33"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="10104.61"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="11216.44"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="8040.26"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="11687.71"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="13471.71"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="3031.63"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="14782.8"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="8300.2999999999993"/>
+  </r>
+  <r>
+    <n v="1000"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="14852.16"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="4887.99"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="5350.86"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="5476.01"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="14282.35"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="4379.78"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="2941.94"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="13981.33"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="10250.469999999999"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="5430.12"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="8063.52"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="6226.91"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="611.26"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="2"/>
+    <n v="12302.42"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="0"/>
+    <n v="14976.11"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="9917"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="December"/>
+    <x v="1"/>
+    <n v="14865.21"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="November"/>
+    <x v="1"/>
+    <n v="9010.18"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="5982.17"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="3308.92"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="13197.85"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="10494.37"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="7614.17"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="2"/>
+    <n v="11574.51"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="1765.47"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="7728.27"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="January"/>
+    <x v="2"/>
+    <n v="987.14"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="9082.75"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="13919.9"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="14251.08"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="3615.89"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="1499.81"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="13572.3"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="8978.61"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="6697.06"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="7502.17"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="10807.27"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="2989.74"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="676.2"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="6878.6"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="6137.17"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="1451.11"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="5345.27"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="6681.14"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="10567.41"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Omega Wholesale"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="2"/>
+    <n v="8081.21"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="10086.049999999999"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="9719.57"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="December"/>
+    <x v="2"/>
+    <n v="14483.63"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="November"/>
+    <x v="0"/>
+    <n v="12631.99"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Alpha Foods"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="8676.9500000000007"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="8634.08"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="6627.36"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="7396.79"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="4"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="3470.86"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="January"/>
+    <x v="2"/>
+    <n v="6203.41"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="14394.35"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="2"/>
+    <n v="9523.25"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="January"/>
+    <x v="1"/>
+    <n v="5610.45"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="9825.24"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="4730.6000000000004"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="7394.38"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="2"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="7705.14"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="4918.28"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="4877.57"/>
+  </r>
+  <r>
+    <n v="1000"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="2"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="9932.43"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="4"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="3075.39"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="847.2"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Alpha Foods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="12799"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="0"/>
+    <n v="5451.95"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="2"/>
+    <n v="12162.24"/>
+  </r>
+  <r>
+    <n v="1000"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="1710.33"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Omega Wholesale"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="1"/>
+    <n v="12560.64"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <s v="Delta Goods"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="September"/>
+    <x v="0"/>
+    <n v="8597.41"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Gamma Traders"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="13712.67"/>
+  </r>
+  <r>
+    <n v="1000"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="5515.21"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Beta Supplies"/>
+    <s v="Inactive"/>
+    <x v="1"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="9557.65"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="1"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="7170.3"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <s v="Delta Goods"/>
+    <s v="Inactive"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="2"/>
+    <n v="14654.12"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="February"/>
+    <x v="1"/>
+    <n v="10232.74"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Beta Supplies"/>
+    <s v="Active"/>
+    <x v="0"/>
+    <s v="October"/>
+    <x v="0"/>
+    <n v="3525.37"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Gamma Traders"/>
+    <s v="Active"/>
+    <x v="3"/>
+    <s v="October"/>
+    <x v="1"/>
+    <n v="10729.92"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34F6D37C-15E9-43B3-A235-E23FFEBD37C7}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B5:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,21 +2446,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -469,13 +2499,13 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
       <c r="F2">
         <v>2025</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>10722.14</v>
       </c>
     </row>
@@ -492,13 +2522,13 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>3</v>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
       <c r="F3">
         <v>2025</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>9076.59</v>
       </c>
     </row>
@@ -515,8 +2545,8 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="E4" t="s">
+        <v>25</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -538,13 +2568,13 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5">
         <v>2025</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>9317.3700000000008</v>
       </c>
     </row>
@@ -561,8 +2591,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2024</v>
@@ -584,8 +2614,8 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>11</v>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
       <c r="F7">
         <v>2024</v>
@@ -607,8 +2637,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>8</v>
+      <c r="E8" t="s">
+        <v>24</v>
       </c>
       <c r="F8">
         <v>2024</v>
@@ -630,8 +2660,8 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>25</v>
       </c>
       <c r="F9">
         <v>2023</v>
@@ -653,8 +2683,8 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>5</v>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="F10">
         <v>2024</v>
@@ -676,8 +2706,8 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>12</v>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
         <v>2024</v>
@@ -699,8 +2729,8 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>10</v>
+      <c r="E12" t="s">
+        <v>29</v>
       </c>
       <c r="F12">
         <v>2023</v>
@@ -722,13 +2752,13 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>29</v>
       </c>
       <c r="F13">
         <v>2025</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>11296.31</v>
       </c>
     </row>
@@ -745,8 +2775,8 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>8</v>
+      <c r="E14" t="s">
+        <v>25</v>
       </c>
       <c r="F14">
         <v>2023</v>
@@ -768,8 +2798,8 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>27</v>
       </c>
       <c r="F15">
         <v>2023</v>
@@ -791,13 +2821,13 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16">
-        <v>10</v>
+      <c r="E16" t="s">
+        <v>23</v>
       </c>
       <c r="F16">
         <v>2025</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>10199.200000000001</v>
       </c>
     </row>
@@ -814,8 +2844,8 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
-        <v>2</v>
+      <c r="E17" t="s">
+        <v>23</v>
       </c>
       <c r="F17">
         <v>2023</v>
@@ -837,8 +2867,8 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18">
-        <v>12</v>
+      <c r="E18" t="s">
+        <v>23</v>
       </c>
       <c r="F18">
         <v>2024</v>
@@ -860,13 +2890,13 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19">
-        <v>12</v>
+      <c r="E19" t="s">
+        <v>23</v>
       </c>
       <c r="F19">
         <v>2025</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>4572.18</v>
       </c>
     </row>
@@ -883,8 +2913,8 @@
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
-        <v>4</v>
+      <c r="E20" t="s">
+        <v>23</v>
       </c>
       <c r="F20">
         <v>2023</v>
@@ -906,8 +2936,8 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>23</v>
       </c>
       <c r="F21">
         <v>2023</v>
@@ -929,13 +2959,13 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
-        <v>3</v>
+      <c r="E22" t="s">
+        <v>23</v>
       </c>
       <c r="F22">
         <v>2025</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>2564.56</v>
       </c>
     </row>
@@ -952,8 +2982,8 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
-        <v>4</v>
+      <c r="E23" t="s">
+        <v>23</v>
       </c>
       <c r="F23">
         <v>2023</v>
@@ -975,8 +3005,8 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>23</v>
       </c>
       <c r="F24">
         <v>2023</v>
@@ -998,8 +3028,8 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25">
-        <v>7</v>
+      <c r="E25" t="s">
+        <v>26</v>
       </c>
       <c r="F25">
         <v>2023</v>
@@ -1021,13 +3051,13 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>3</v>
+      <c r="E26" t="s">
+        <v>26</v>
       </c>
       <c r="F26">
         <v>2025</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>14499.79</v>
       </c>
     </row>
@@ -1044,8 +3074,8 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27">
-        <v>4</v>
+      <c r="E27" t="s">
+        <v>26</v>
       </c>
       <c r="F27">
         <v>2023</v>
@@ -1067,8 +3097,8 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28">
-        <v>2</v>
+      <c r="E28" t="s">
+        <v>27</v>
       </c>
       <c r="F28">
         <v>2023</v>
@@ -1090,8 +3120,8 @@
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E29">
-        <v>5</v>
+      <c r="E29" t="s">
+        <v>28</v>
       </c>
       <c r="F29">
         <v>2023</v>
@@ -1113,8 +3143,8 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30">
-        <v>11</v>
+      <c r="E30" t="s">
+        <v>29</v>
       </c>
       <c r="F30">
         <v>2023</v>
@@ -1136,8 +3166,8 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31">
-        <v>12</v>
+      <c r="E31" t="s">
+        <v>30</v>
       </c>
       <c r="F31">
         <v>2024</v>
@@ -1159,8 +3189,8 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="E32">
-        <v>6</v>
+      <c r="E32" t="s">
+        <v>31</v>
       </c>
       <c r="F32">
         <v>2023</v>
@@ -1182,8 +3212,8 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
-        <v>3</v>
+      <c r="E33" t="s">
+        <v>30</v>
       </c>
       <c r="F33">
         <v>2023</v>
@@ -1205,13 +3235,13 @@
       <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E34">
-        <v>9</v>
+      <c r="E34" t="s">
+        <v>30</v>
       </c>
       <c r="F34">
         <v>2025</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>13283.01</v>
       </c>
     </row>
@@ -1228,8 +3258,8 @@
       <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E35">
-        <v>3</v>
+      <c r="E35" t="s">
+        <v>30</v>
       </c>
       <c r="F35">
         <v>2023</v>
@@ -1251,8 +3281,8 @@
       <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="E36">
-        <v>9</v>
+      <c r="E36" t="s">
+        <v>26</v>
       </c>
       <c r="F36">
         <v>2024</v>
@@ -1274,8 +3304,8 @@
       <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="E37">
-        <v>4</v>
+      <c r="E37" t="s">
+        <v>31</v>
       </c>
       <c r="F37">
         <v>2024</v>
@@ -1297,8 +3327,8 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="E38">
-        <v>2</v>
+      <c r="E38" t="s">
+        <v>31</v>
       </c>
       <c r="F38">
         <v>2023</v>
@@ -1320,8 +3350,8 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39">
-        <v>12</v>
+      <c r="E39" t="s">
+        <v>26</v>
       </c>
       <c r="F39">
         <v>2023</v>
@@ -1343,13 +3373,13 @@
       <c r="D40" t="s">
         <v>12</v>
       </c>
-      <c r="E40">
-        <v>5</v>
+      <c r="E40" t="s">
+        <v>30</v>
       </c>
       <c r="F40">
         <v>2025</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>2501.5</v>
       </c>
     </row>
@@ -1366,8 +3396,8 @@
       <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="E41">
-        <v>3</v>
+      <c r="E41" t="s">
+        <v>30</v>
       </c>
       <c r="F41">
         <v>2024</v>
@@ -1389,13 +3419,13 @@
       <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>31</v>
       </c>
       <c r="F42">
         <v>2025</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>9863.32</v>
       </c>
     </row>
@@ -1412,13 +3442,13 @@
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43">
-        <v>5</v>
+      <c r="E43" t="s">
+        <v>31</v>
       </c>
       <c r="F43">
         <v>2025</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>9008.5300000000007</v>
       </c>
     </row>
@@ -1435,8 +3465,8 @@
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="E44">
-        <v>2</v>
+      <c r="E44" t="s">
+        <v>31</v>
       </c>
       <c r="F44">
         <v>2024</v>
@@ -1458,13 +3488,13 @@
       <c r="D45" t="s">
         <v>17</v>
       </c>
-      <c r="E45">
-        <v>6</v>
+      <c r="E45" t="s">
+        <v>27</v>
       </c>
       <c r="F45">
         <v>2025</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>8677.9699999999993</v>
       </c>
     </row>
@@ -1481,8 +3511,8 @@
       <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="E46">
-        <v>6</v>
+      <c r="E46" t="s">
+        <v>27</v>
       </c>
       <c r="F46">
         <v>2024</v>
@@ -1504,8 +3534,8 @@
       <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="E47">
-        <v>9</v>
+      <c r="E47" t="s">
+        <v>27</v>
       </c>
       <c r="F47">
         <v>2024</v>
@@ -1527,13 +3557,13 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E48">
-        <v>8</v>
+      <c r="E48" t="s">
+        <v>27</v>
       </c>
       <c r="F48">
         <v>2025</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>8063.46</v>
       </c>
     </row>
@@ -1550,13 +3580,13 @@
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E49">
-        <v>7</v>
+      <c r="E49" t="s">
+        <v>27</v>
       </c>
       <c r="F49">
         <v>2025</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>1926.66</v>
       </c>
     </row>
@@ -1573,8 +3603,8 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50">
-        <v>1</v>
+      <c r="E50" t="s">
+        <v>27</v>
       </c>
       <c r="F50">
         <v>2023</v>
@@ -1596,8 +3626,8 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E51">
-        <v>6</v>
+      <c r="E51" t="s">
+        <v>30</v>
       </c>
       <c r="F51">
         <v>2023</v>
@@ -1619,8 +3649,8 @@
       <c r="D52" t="s">
         <v>17</v>
       </c>
-      <c r="E52">
-        <v>8</v>
+      <c r="E52" t="s">
+        <v>31</v>
       </c>
       <c r="F52">
         <v>2023</v>
@@ -1642,8 +3672,8 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="E53">
-        <v>12</v>
+      <c r="E53" t="s">
+        <v>31</v>
       </c>
       <c r="F53">
         <v>2023</v>
@@ -1665,13 +3695,13 @@
       <c r="D54" t="s">
         <v>14</v>
       </c>
-      <c r="E54">
-        <v>10</v>
+      <c r="E54" t="s">
+        <v>31</v>
       </c>
       <c r="F54">
         <v>2025</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>3558.4</v>
       </c>
     </row>
@@ -1688,13 +3718,13 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="E55">
-        <v>5</v>
+      <c r="E55" t="s">
+        <v>30</v>
       </c>
       <c r="F55">
         <v>2025</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>14710.2</v>
       </c>
     </row>
@@ -1711,13 +3741,13 @@
       <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="E56">
-        <v>11</v>
+      <c r="E56" t="s">
+        <v>30</v>
       </c>
       <c r="F56">
         <v>2025</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>8546.17</v>
       </c>
     </row>
@@ -1734,8 +3764,8 @@
       <c r="D57" t="s">
         <v>12</v>
       </c>
-      <c r="E57">
-        <v>7</v>
+      <c r="E57" t="s">
+        <v>30</v>
       </c>
       <c r="F57">
         <v>2024</v>
@@ -1757,8 +3787,8 @@
       <c r="D58" t="s">
         <v>12</v>
       </c>
-      <c r="E58">
-        <v>12</v>
+      <c r="E58" t="s">
+        <v>30</v>
       </c>
       <c r="F58">
         <v>2024</v>
@@ -1780,8 +3810,8 @@
       <c r="D59" t="s">
         <v>9</v>
       </c>
-      <c r="E59">
-        <v>5</v>
+      <c r="E59" t="s">
+        <v>30</v>
       </c>
       <c r="F59">
         <v>2024</v>
@@ -1803,8 +3833,8 @@
       <c r="D60" t="s">
         <v>16</v>
       </c>
-      <c r="E60">
-        <v>1</v>
+      <c r="E60" t="s">
+        <v>30</v>
       </c>
       <c r="F60">
         <v>2023</v>
@@ -1826,13 +3856,13 @@
       <c r="D61" t="s">
         <v>9</v>
       </c>
-      <c r="E61">
-        <v>5</v>
+      <c r="E61" t="s">
+        <v>30</v>
       </c>
       <c r="F61">
         <v>2025</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>3709.73</v>
       </c>
     </row>
@@ -1849,8 +3879,8 @@
       <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="E62">
-        <v>9</v>
+      <c r="E62" t="s">
+        <v>28</v>
       </c>
       <c r="F62">
         <v>2024</v>
@@ -1872,8 +3902,8 @@
       <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="E63">
-        <v>7</v>
+      <c r="E63" t="s">
+        <v>28</v>
       </c>
       <c r="F63">
         <v>2024</v>
@@ -1895,13 +3925,13 @@
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="E64">
-        <v>3</v>
+      <c r="E64" t="s">
+        <v>28</v>
       </c>
       <c r="F64">
         <v>2025</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>10786.15</v>
       </c>
     </row>
@@ -1918,8 +3948,8 @@
       <c r="D65" t="s">
         <v>14</v>
       </c>
-      <c r="E65">
-        <v>3</v>
+      <c r="E65" t="s">
+        <v>28</v>
       </c>
       <c r="F65">
         <v>2023</v>
@@ -1941,13 +3971,13 @@
       <c r="D66" t="s">
         <v>12</v>
       </c>
-      <c r="E66">
-        <v>9</v>
+      <c r="E66" t="s">
+        <v>28</v>
       </c>
       <c r="F66">
         <v>2025</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>3831.05</v>
       </c>
     </row>
@@ -1964,8 +3994,8 @@
       <c r="D67" t="s">
         <v>9</v>
       </c>
-      <c r="E67">
-        <v>12</v>
+      <c r="E67" t="s">
+        <v>28</v>
       </c>
       <c r="F67">
         <v>2024</v>
@@ -1987,8 +4017,8 @@
       <c r="D68" t="s">
         <v>17</v>
       </c>
-      <c r="E68">
-        <v>10</v>
+      <c r="E68" t="s">
+        <v>28</v>
       </c>
       <c r="F68">
         <v>2024</v>
@@ -2010,8 +4040,8 @@
       <c r="D69" t="s">
         <v>14</v>
       </c>
-      <c r="E69">
-        <v>2</v>
+      <c r="E69" t="s">
+        <v>26</v>
       </c>
       <c r="F69">
         <v>2023</v>
@@ -2033,8 +4063,8 @@
       <c r="D70" t="s">
         <v>17</v>
       </c>
-      <c r="E70">
-        <v>4</v>
+      <c r="E70" t="s">
+        <v>26</v>
       </c>
       <c r="F70">
         <v>2023</v>
@@ -2056,13 +4086,13 @@
       <c r="D71" t="s">
         <v>17</v>
       </c>
-      <c r="E71">
-        <v>3</v>
+      <c r="E71" t="s">
+        <v>27</v>
       </c>
       <c r="F71">
         <v>2025</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>12775.82</v>
       </c>
     </row>
@@ -2079,13 +4109,13 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="E72">
-        <v>11</v>
+      <c r="E72" t="s">
+        <v>28</v>
       </c>
       <c r="F72">
         <v>2025</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>1307.6400000000001</v>
       </c>
     </row>
@@ -2102,8 +4132,8 @@
       <c r="D73" t="s">
         <v>14</v>
       </c>
-      <c r="E73">
-        <v>11</v>
+      <c r="E73" t="s">
+        <v>29</v>
       </c>
       <c r="F73">
         <v>2024</v>
@@ -2125,13 +4155,13 @@
       <c r="D74" t="s">
         <v>12</v>
       </c>
-      <c r="E74">
-        <v>10</v>
+      <c r="E74" t="s">
+        <v>30</v>
       </c>
       <c r="F74">
         <v>2025</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>14206.22</v>
       </c>
     </row>
@@ -2148,8 +4178,8 @@
       <c r="D75" t="s">
         <v>17</v>
       </c>
-      <c r="E75">
-        <v>6</v>
+      <c r="E75" t="s">
+        <v>31</v>
       </c>
       <c r="F75">
         <v>2024</v>
@@ -2171,13 +4201,13 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="E76">
-        <v>10</v>
+      <c r="E76" t="s">
+        <v>30</v>
       </c>
       <c r="F76">
         <v>2025</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>14912.49</v>
       </c>
     </row>
@@ -2194,13 +4224,13 @@
       <c r="D77" t="s">
         <v>17</v>
       </c>
-      <c r="E77">
-        <v>7</v>
+      <c r="E77" t="s">
+        <v>30</v>
       </c>
       <c r="F77">
         <v>2025</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>6084.36</v>
       </c>
     </row>
@@ -2217,8 +4247,8 @@
       <c r="D78" t="s">
         <v>14</v>
       </c>
-      <c r="E78">
-        <v>7</v>
+      <c r="E78" t="s">
+        <v>30</v>
       </c>
       <c r="F78">
         <v>2023</v>
@@ -2240,8 +4270,8 @@
       <c r="D79" t="s">
         <v>9</v>
       </c>
-      <c r="E79">
-        <v>2</v>
+      <c r="E79" t="s">
+        <v>26</v>
       </c>
       <c r="F79">
         <v>2024</v>
@@ -2263,8 +4293,8 @@
       <c r="D80" t="s">
         <v>12</v>
       </c>
-      <c r="E80">
-        <v>4</v>
+      <c r="E80" t="s">
+        <v>31</v>
       </c>
       <c r="F80">
         <v>2024</v>
@@ -2286,8 +4316,8 @@
       <c r="D81" t="s">
         <v>9</v>
       </c>
-      <c r="E81">
-        <v>10</v>
+      <c r="E81" t="s">
+        <v>31</v>
       </c>
       <c r="F81">
         <v>2024</v>
@@ -2309,8 +4339,8 @@
       <c r="D82" t="s">
         <v>12</v>
       </c>
-      <c r="E82">
-        <v>3</v>
+      <c r="E82" t="s">
+        <v>26</v>
       </c>
       <c r="F82">
         <v>2024</v>
@@ -2332,8 +4362,8 @@
       <c r="D83" t="s">
         <v>9</v>
       </c>
-      <c r="E83">
-        <v>1</v>
+      <c r="E83" t="s">
+        <v>30</v>
       </c>
       <c r="F83">
         <v>2024</v>
@@ -2355,13 +4385,13 @@
       <c r="D84" t="s">
         <v>17</v>
       </c>
-      <c r="E84">
-        <v>3</v>
+      <c r="E84" t="s">
+        <v>30</v>
       </c>
       <c r="F84">
         <v>2025</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>4784.6000000000004</v>
       </c>
     </row>
@@ -2378,8 +4408,8 @@
       <c r="D85" t="s">
         <v>17</v>
       </c>
-      <c r="E85">
-        <v>4</v>
+      <c r="E85" t="s">
+        <v>31</v>
       </c>
       <c r="F85">
         <v>2024</v>
@@ -2401,13 +4431,13 @@
       <c r="D86" t="s">
         <v>14</v>
       </c>
-      <c r="E86">
-        <v>1</v>
+      <c r="E86" t="s">
+        <v>31</v>
       </c>
       <c r="F86">
         <v>2025</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>10754.25</v>
       </c>
     </row>
@@ -2424,8 +4454,8 @@
       <c r="D87" t="s">
         <v>12</v>
       </c>
-      <c r="E87">
-        <v>6</v>
+      <c r="E87" t="s">
+        <v>31</v>
       </c>
       <c r="F87">
         <v>2024</v>
@@ -2447,13 +4477,13 @@
       <c r="D88" t="s">
         <v>17</v>
       </c>
-      <c r="E88">
-        <v>9</v>
+      <c r="E88" t="s">
+        <v>27</v>
       </c>
       <c r="F88">
         <v>2025</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>4858.49</v>
       </c>
     </row>
@@ -2470,8 +4500,8 @@
       <c r="D89" t="s">
         <v>9</v>
       </c>
-      <c r="E89">
-        <v>9</v>
+      <c r="E89" t="s">
+        <v>27</v>
       </c>
       <c r="F89">
         <v>2024</v>
@@ -2493,8 +4523,8 @@
       <c r="D90" t="s">
         <v>12</v>
       </c>
-      <c r="E90">
-        <v>8</v>
+      <c r="E90" t="s">
+        <v>27</v>
       </c>
       <c r="F90">
         <v>2024</v>
@@ -2516,8 +4546,8 @@
       <c r="D91" t="s">
         <v>16</v>
       </c>
-      <c r="E91">
-        <v>9</v>
+      <c r="E91" t="s">
+        <v>27</v>
       </c>
       <c r="F91">
         <v>2024</v>
@@ -2539,13 +4569,13 @@
       <c r="D92" t="s">
         <v>12</v>
       </c>
-      <c r="E92">
-        <v>11</v>
+      <c r="E92" t="s">
+        <v>27</v>
       </c>
       <c r="F92">
         <v>2025</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>13867.7</v>
       </c>
     </row>
@@ -2562,8 +4592,8 @@
       <c r="D93" t="s">
         <v>14</v>
       </c>
-      <c r="E93">
-        <v>5</v>
+      <c r="E93" t="s">
+        <v>27</v>
       </c>
       <c r="F93">
         <v>2023</v>
@@ -2585,8 +4615,8 @@
       <c r="D94" t="s">
         <v>16</v>
       </c>
-      <c r="E94">
-        <v>3</v>
+      <c r="E94" t="s">
+        <v>30</v>
       </c>
       <c r="F94">
         <v>2024</v>
@@ -2608,8 +4638,8 @@
       <c r="D95" t="s">
         <v>9</v>
       </c>
-      <c r="E95">
-        <v>11</v>
+      <c r="E95" t="s">
+        <v>31</v>
       </c>
       <c r="F95">
         <v>2024</v>
@@ -2631,8 +4661,8 @@
       <c r="D96" t="s">
         <v>14</v>
       </c>
-      <c r="E96">
-        <v>4</v>
+      <c r="E96" t="s">
+        <v>31</v>
       </c>
       <c r="F96">
         <v>2024</v>
@@ -2654,8 +4684,8 @@
       <c r="D97" t="s">
         <v>14</v>
       </c>
-      <c r="E97">
-        <v>2</v>
+      <c r="E97" t="s">
+        <v>31</v>
       </c>
       <c r="F97">
         <v>2023</v>
@@ -2677,8 +4707,8 @@
       <c r="D98" t="s">
         <v>16</v>
       </c>
-      <c r="E98">
-        <v>4</v>
+      <c r="E98" t="s">
+        <v>30</v>
       </c>
       <c r="F98">
         <v>2023</v>
@@ -2700,8 +4730,8 @@
       <c r="D99" t="s">
         <v>9</v>
       </c>
-      <c r="E99">
-        <v>1</v>
+      <c r="E99" t="s">
+        <v>30</v>
       </c>
       <c r="F99">
         <v>2023</v>
@@ -2723,8 +4753,8 @@
       <c r="D100" t="s">
         <v>12</v>
       </c>
-      <c r="E100">
-        <v>7</v>
+      <c r="E100" t="s">
+        <v>30</v>
       </c>
       <c r="F100">
         <v>2024</v>
@@ -2746,13 +4776,13 @@
       <c r="D101" t="s">
         <v>14</v>
       </c>
-      <c r="E101">
-        <v>2</v>
+      <c r="E101" t="s">
+        <v>26</v>
       </c>
       <c r="F101">
         <v>2025</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>3395.24</v>
       </c>
     </row>
@@ -2769,8 +4799,8 @@
       <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="E102">
-        <v>6</v>
+      <c r="E102" t="s">
+        <v>26</v>
       </c>
       <c r="F102">
         <v>2023</v>
@@ -2792,13 +4822,13 @@
       <c r="D103" t="s">
         <v>12</v>
       </c>
-      <c r="E103">
-        <v>12</v>
+      <c r="E103" t="s">
+        <v>27</v>
       </c>
       <c r="F103">
         <v>2025</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>4110.5200000000004</v>
       </c>
     </row>
@@ -2815,8 +4845,8 @@
       <c r="D104" t="s">
         <v>17</v>
       </c>
-      <c r="E104">
-        <v>3</v>
+      <c r="E104" t="s">
+        <v>28</v>
       </c>
       <c r="F104">
         <v>2023</v>
@@ -2838,13 +4868,13 @@
       <c r="D105" t="s">
         <v>12</v>
       </c>
-      <c r="E105">
-        <v>2</v>
+      <c r="E105" t="s">
+        <v>29</v>
       </c>
       <c r="F105">
         <v>2025</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <v>14381.45</v>
       </c>
     </row>
@@ -2861,13 +4891,13 @@
       <c r="D106" t="s">
         <v>9</v>
       </c>
-      <c r="E106">
-        <v>9</v>
+      <c r="E106" t="s">
+        <v>30</v>
       </c>
       <c r="F106">
         <v>2025</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>4468.95</v>
       </c>
     </row>
@@ -2884,8 +4914,8 @@
       <c r="D107" t="s">
         <v>17</v>
       </c>
-      <c r="E107">
-        <v>12</v>
+      <c r="E107" t="s">
+        <v>31</v>
       </c>
       <c r="F107">
         <v>2023</v>
@@ -2907,8 +4937,8 @@
       <c r="D108" t="s">
         <v>9</v>
       </c>
-      <c r="E108">
-        <v>12</v>
+      <c r="E108" t="s">
+        <v>30</v>
       </c>
       <c r="F108">
         <v>2024</v>
@@ -2930,13 +4960,13 @@
       <c r="D109" t="s">
         <v>12</v>
       </c>
-      <c r="E109">
-        <v>8</v>
+      <c r="E109" t="s">
+        <v>30</v>
       </c>
       <c r="F109">
         <v>2025</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>6233.71</v>
       </c>
     </row>
@@ -2953,8 +4983,8 @@
       <c r="D110" t="s">
         <v>12</v>
       </c>
-      <c r="E110">
-        <v>12</v>
+      <c r="E110" t="s">
+        <v>30</v>
       </c>
       <c r="F110">
         <v>2024</v>
@@ -2976,13 +5006,13 @@
       <c r="D111" t="s">
         <v>17</v>
       </c>
-      <c r="E111">
-        <v>5</v>
+      <c r="E111" t="s">
+        <v>26</v>
       </c>
       <c r="F111">
         <v>2025</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <v>7898.33</v>
       </c>
     </row>
@@ -2999,8 +5029,8 @@
       <c r="D112" t="s">
         <v>9</v>
       </c>
-      <c r="E112">
-        <v>11</v>
+      <c r="E112" t="s">
+        <v>31</v>
       </c>
       <c r="F112">
         <v>2024</v>
@@ -3022,8 +5052,8 @@
       <c r="D113" t="s">
         <v>12</v>
       </c>
-      <c r="E113">
-        <v>6</v>
+      <c r="E113" t="s">
+        <v>31</v>
       </c>
       <c r="F113">
         <v>2024</v>
@@ -3045,8 +5075,8 @@
       <c r="D114" t="s">
         <v>12</v>
       </c>
-      <c r="E114">
-        <v>8</v>
+      <c r="E114" t="s">
+        <v>26</v>
       </c>
       <c r="F114">
         <v>2023</v>
@@ -3068,8 +5098,8 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
-      <c r="E115">
-        <v>6</v>
+      <c r="E115" t="s">
+        <v>30</v>
       </c>
       <c r="F115">
         <v>2023</v>
@@ -3091,13 +5121,13 @@
       <c r="D116" t="s">
         <v>12</v>
       </c>
-      <c r="E116">
-        <v>8</v>
+      <c r="E116" t="s">
+        <v>30</v>
       </c>
       <c r="F116">
         <v>2025</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <v>13471.71</v>
       </c>
     </row>
@@ -3114,13 +5144,13 @@
       <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="E117">
-        <v>2</v>
+      <c r="E117" t="s">
+        <v>31</v>
       </c>
       <c r="F117">
         <v>2025</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
         <v>3031.63</v>
       </c>
     </row>
@@ -3137,8 +5167,8 @@
       <c r="D118" t="s">
         <v>17</v>
       </c>
-      <c r="E118">
-        <v>5</v>
+      <c r="E118" t="s">
+        <v>31</v>
       </c>
       <c r="F118">
         <v>2023</v>
@@ -3160,8 +5190,8 @@
       <c r="D119" t="s">
         <v>9</v>
       </c>
-      <c r="E119">
-        <v>3</v>
+      <c r="E119" t="s">
+        <v>31</v>
       </c>
       <c r="F119">
         <v>2024</v>
@@ -3183,8 +5213,8 @@
       <c r="D120" t="s">
         <v>12</v>
       </c>
-      <c r="E120">
-        <v>5</v>
+      <c r="E120" t="s">
+        <v>27</v>
       </c>
       <c r="F120">
         <v>2023</v>
@@ -3206,8 +5236,8 @@
       <c r="D121" t="s">
         <v>16</v>
       </c>
-      <c r="E121">
-        <v>9</v>
+      <c r="E121" t="s">
+        <v>27</v>
       </c>
       <c r="F121">
         <v>2024</v>
@@ -3229,13 +5259,13 @@
       <c r="D122" t="s">
         <v>9</v>
       </c>
-      <c r="E122">
-        <v>2</v>
+      <c r="E122" t="s">
+        <v>27</v>
       </c>
       <c r="F122">
         <v>2025</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="3">
         <v>5350.86</v>
       </c>
     </row>
@@ -3252,8 +5282,8 @@
       <c r="D123" t="s">
         <v>16</v>
       </c>
-      <c r="E123">
-        <v>6</v>
+      <c r="E123" t="s">
+        <v>27</v>
       </c>
       <c r="F123">
         <v>2023</v>
@@ -3275,8 +5305,8 @@
       <c r="D124" t="s">
         <v>9</v>
       </c>
-      <c r="E124">
-        <v>12</v>
+      <c r="E124" t="s">
+        <v>27</v>
       </c>
       <c r="F124">
         <v>2024</v>
@@ -3298,13 +5328,13 @@
       <c r="D125" t="s">
         <v>16</v>
       </c>
-      <c r="E125">
-        <v>10</v>
+      <c r="E125" t="s">
+        <v>27</v>
       </c>
       <c r="F125">
         <v>2025</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="3">
         <v>4379.78</v>
       </c>
     </row>
@@ -3321,13 +5351,13 @@
       <c r="D126" t="s">
         <v>16</v>
       </c>
-      <c r="E126">
-        <v>1</v>
+      <c r="E126" t="s">
+        <v>30</v>
       </c>
       <c r="F126">
         <v>2025</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="3">
         <v>2941.94</v>
       </c>
     </row>
@@ -3344,8 +5374,8 @@
       <c r="D127" t="s">
         <v>14</v>
       </c>
-      <c r="E127">
-        <v>9</v>
+      <c r="E127" t="s">
+        <v>31</v>
       </c>
       <c r="F127">
         <v>2024</v>
@@ -3367,8 +5397,8 @@
       <c r="D128" t="s">
         <v>16</v>
       </c>
-      <c r="E128">
-        <v>6</v>
+      <c r="E128" t="s">
+        <v>31</v>
       </c>
       <c r="F128">
         <v>2024</v>
@@ -3390,13 +5420,13 @@
       <c r="D129" t="s">
         <v>9</v>
       </c>
-      <c r="E129">
-        <v>3</v>
+      <c r="E129" t="s">
+        <v>31</v>
       </c>
       <c r="F129">
         <v>2025</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="3">
         <v>5430.12</v>
       </c>
     </row>
@@ -3413,8 +5443,8 @@
       <c r="D130" t="s">
         <v>17</v>
       </c>
-      <c r="E130">
-        <v>2</v>
+      <c r="E130" t="s">
+        <v>30</v>
       </c>
       <c r="F130">
         <v>2024</v>
@@ -3436,13 +5466,13 @@
       <c r="D131" t="s">
         <v>9</v>
       </c>
-      <c r="E131">
-        <v>12</v>
+      <c r="E131" t="s">
+        <v>30</v>
       </c>
       <c r="F131">
         <v>2025</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="3">
         <v>6226.91</v>
       </c>
     </row>
@@ -3459,8 +5489,8 @@
       <c r="D132" t="s">
         <v>9</v>
       </c>
-      <c r="E132">
-        <v>10</v>
+      <c r="E132" t="s">
+        <v>30</v>
       </c>
       <c r="F132">
         <v>2024</v>
@@ -3482,8 +5512,8 @@
       <c r="D133" t="s">
         <v>12</v>
       </c>
-      <c r="E133">
-        <v>1</v>
+      <c r="E133" t="s">
+        <v>26</v>
       </c>
       <c r="F133">
         <v>2024</v>
@@ -3505,13 +5535,13 @@
       <c r="D134" t="s">
         <v>12</v>
       </c>
-      <c r="E134">
-        <v>6</v>
+      <c r="E134" t="s">
+        <v>26</v>
       </c>
       <c r="F134">
         <v>2025</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="3">
         <v>14976.11</v>
       </c>
     </row>
@@ -3528,8 +5558,8 @@
       <c r="D135" t="s">
         <v>16</v>
       </c>
-      <c r="E135">
-        <v>6</v>
+      <c r="E135" t="s">
+        <v>27</v>
       </c>
       <c r="F135">
         <v>2023</v>
@@ -3551,8 +5581,8 @@
       <c r="D136" t="s">
         <v>17</v>
       </c>
-      <c r="E136">
-        <v>1</v>
+      <c r="E136" t="s">
+        <v>28</v>
       </c>
       <c r="F136">
         <v>2023</v>
@@ -3574,8 +5604,8 @@
       <c r="D137" t="s">
         <v>17</v>
       </c>
-      <c r="E137">
-        <v>1</v>
+      <c r="E137" t="s">
+        <v>29</v>
       </c>
       <c r="F137">
         <v>2023</v>
@@ -3597,8 +5627,8 @@
       <c r="D138" t="s">
         <v>9</v>
       </c>
-      <c r="E138">
-        <v>12</v>
+      <c r="E138" t="s">
+        <v>30</v>
       </c>
       <c r="F138">
         <v>2024</v>
@@ -3620,8 +5650,8 @@
       <c r="D139" t="s">
         <v>17</v>
       </c>
-      <c r="E139">
-        <v>10</v>
+      <c r="E139" t="s">
+        <v>31</v>
       </c>
       <c r="F139">
         <v>2023</v>
@@ -3643,8 +5673,8 @@
       <c r="D140" t="s">
         <v>14</v>
       </c>
-      <c r="E140">
-        <v>6</v>
+      <c r="E140" t="s">
+        <v>30</v>
       </c>
       <c r="F140">
         <v>2024</v>
@@ -3666,13 +5696,13 @@
       <c r="D141" t="s">
         <v>14</v>
       </c>
-      <c r="E141">
-        <v>4</v>
+      <c r="E141" t="s">
+        <v>30</v>
       </c>
       <c r="F141">
         <v>2025</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="3">
         <v>10494.37</v>
       </c>
     </row>
@@ -3689,8 +5719,8 @@
       <c r="D142" t="s">
         <v>14</v>
       </c>
-      <c r="E142">
-        <v>8</v>
+      <c r="E142" t="s">
+        <v>30</v>
       </c>
       <c r="F142">
         <v>2024</v>
@@ -3712,8 +5742,8 @@
       <c r="D143" t="s">
         <v>12</v>
       </c>
-      <c r="E143">
-        <v>3</v>
+      <c r="E143" t="s">
+        <v>26</v>
       </c>
       <c r="F143">
         <v>2024</v>
@@ -3735,8 +5765,8 @@
       <c r="D144" t="s">
         <v>16</v>
       </c>
-      <c r="E144">
-        <v>7</v>
+      <c r="E144" t="s">
+        <v>31</v>
       </c>
       <c r="F144">
         <v>2023</v>
@@ -3758,8 +5788,8 @@
       <c r="D145" t="s">
         <v>14</v>
       </c>
-      <c r="E145">
-        <v>11</v>
+      <c r="E145" t="s">
+        <v>31</v>
       </c>
       <c r="F145">
         <v>2023</v>
@@ -3781,8 +5811,8 @@
       <c r="D146" t="s">
         <v>9</v>
       </c>
-      <c r="E146">
-        <v>4</v>
+      <c r="E146" t="s">
+        <v>26</v>
       </c>
       <c r="F146">
         <v>2024</v>
@@ -3804,8 +5834,8 @@
       <c r="D147" t="s">
         <v>12</v>
       </c>
-      <c r="E147">
-        <v>10</v>
+      <c r="E147" t="s">
+        <v>30</v>
       </c>
       <c r="F147">
         <v>2023</v>
@@ -3827,13 +5857,13 @@
       <c r="D148" t="s">
         <v>9</v>
       </c>
-      <c r="E148">
-        <v>12</v>
+      <c r="E148" t="s">
+        <v>30</v>
       </c>
       <c r="F148">
         <v>2025</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="3">
         <v>13919.9</v>
       </c>
     </row>
@@ -3850,8 +5880,8 @@
       <c r="D149" t="s">
         <v>16</v>
       </c>
-      <c r="E149">
-        <v>10</v>
+      <c r="E149" t="s">
+        <v>31</v>
       </c>
       <c r="F149">
         <v>2024</v>
@@ -3873,8 +5903,8 @@
       <c r="D150" t="s">
         <v>9</v>
       </c>
-      <c r="E150">
-        <v>11</v>
+      <c r="E150" t="s">
+        <v>31</v>
       </c>
       <c r="F150">
         <v>2024</v>
@@ -3896,13 +5926,13 @@
       <c r="D151" t="s">
         <v>9</v>
       </c>
-      <c r="E151">
-        <v>10</v>
+      <c r="E151" t="s">
+        <v>31</v>
       </c>
       <c r="F151">
         <v>2025</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="3">
         <v>1499.81</v>
       </c>
     </row>
@@ -3919,8 +5949,8 @@
       <c r="D152" t="s">
         <v>16</v>
       </c>
-      <c r="E152">
-        <v>3</v>
+      <c r="E152" t="s">
+        <v>27</v>
       </c>
       <c r="F152">
         <v>2023</v>
@@ -3942,8 +5972,8 @@
       <c r="D153" t="s">
         <v>14</v>
       </c>
-      <c r="E153">
-        <v>12</v>
+      <c r="E153" t="s">
+        <v>27</v>
       </c>
       <c r="F153">
         <v>2024</v>
@@ -3965,8 +5995,8 @@
       <c r="D154" t="s">
         <v>16</v>
       </c>
-      <c r="E154">
-        <v>8</v>
+      <c r="E154" t="s">
+        <v>27</v>
       </c>
       <c r="F154">
         <v>2023</v>
@@ -3988,8 +6018,8 @@
       <c r="D155" t="s">
         <v>17</v>
       </c>
-      <c r="E155">
-        <v>4</v>
+      <c r="E155" t="s">
+        <v>27</v>
       </c>
       <c r="F155">
         <v>2023</v>
@@ -4011,8 +6041,8 @@
       <c r="D156" t="s">
         <v>9</v>
       </c>
-      <c r="E156">
-        <v>2</v>
+      <c r="E156" t="s">
+        <v>27</v>
       </c>
       <c r="F156">
         <v>2023</v>
@@ -4034,8 +6064,8 @@
       <c r="D157" t="s">
         <v>12</v>
       </c>
-      <c r="E157">
-        <v>7</v>
+      <c r="E157" t="s">
+        <v>27</v>
       </c>
       <c r="F157">
         <v>2023</v>
@@ -4057,8 +6087,8 @@
       <c r="D158" t="s">
         <v>12</v>
       </c>
-      <c r="E158">
-        <v>3</v>
+      <c r="E158" t="s">
+        <v>30</v>
       </c>
       <c r="F158">
         <v>2024</v>
@@ -4080,8 +6110,8 @@
       <c r="D159" t="s">
         <v>9</v>
       </c>
-      <c r="E159">
-        <v>8</v>
+      <c r="E159" t="s">
+        <v>31</v>
       </c>
       <c r="F159">
         <v>2023</v>
@@ -4103,8 +6133,8 @@
       <c r="D160" t="s">
         <v>9</v>
       </c>
-      <c r="E160">
-        <v>2</v>
+      <c r="E160" t="s">
+        <v>31</v>
       </c>
       <c r="F160">
         <v>2024</v>
@@ -4126,8 +6156,8 @@
       <c r="D161" t="s">
         <v>17</v>
       </c>
-      <c r="E161">
-        <v>1</v>
+      <c r="E161" t="s">
+        <v>31</v>
       </c>
       <c r="F161">
         <v>2023</v>
@@ -4149,8 +6179,8 @@
       <c r="D162" t="s">
         <v>14</v>
       </c>
-      <c r="E162">
-        <v>11</v>
+      <c r="E162" t="s">
+        <v>30</v>
       </c>
       <c r="F162">
         <v>2024</v>
@@ -4172,8 +6202,8 @@
       <c r="D163" t="s">
         <v>17</v>
       </c>
-      <c r="E163">
-        <v>4</v>
+      <c r="E163" t="s">
+        <v>30</v>
       </c>
       <c r="F163">
         <v>2023</v>
@@ -4195,8 +6225,8 @@
       <c r="D164" t="s">
         <v>9</v>
       </c>
-      <c r="E164">
-        <v>3</v>
+      <c r="E164" t="s">
+        <v>30</v>
       </c>
       <c r="F164">
         <v>2024</v>
@@ -4218,8 +6248,8 @@
       <c r="D165" t="s">
         <v>12</v>
       </c>
-      <c r="E165">
-        <v>10</v>
+      <c r="E165" t="s">
+        <v>26</v>
       </c>
       <c r="F165">
         <v>2024</v>
@@ -4241,8 +6271,8 @@
       <c r="D166" t="s">
         <v>17</v>
       </c>
-      <c r="E166">
-        <v>11</v>
+      <c r="E166" t="s">
+        <v>26</v>
       </c>
       <c r="F166">
         <v>2023</v>
@@ -4264,13 +6294,13 @@
       <c r="D167" t="s">
         <v>16</v>
       </c>
-      <c r="E167">
-        <v>7</v>
+      <c r="E167" t="s">
+        <v>27</v>
       </c>
       <c r="F167">
         <v>2025</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="3">
         <v>9719.57</v>
       </c>
     </row>
@@ -4287,8 +6317,8 @@
       <c r="D168" t="s">
         <v>12</v>
       </c>
-      <c r="E168">
-        <v>11</v>
+      <c r="E168" t="s">
+        <v>28</v>
       </c>
       <c r="F168">
         <v>2024</v>
@@ -4310,13 +6340,13 @@
       <c r="D169" t="s">
         <v>12</v>
       </c>
-      <c r="E169">
-        <v>10</v>
+      <c r="E169" t="s">
+        <v>29</v>
       </c>
       <c r="F169">
         <v>2025</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="3">
         <v>12631.99</v>
       </c>
     </row>
@@ -4333,8 +6363,8 @@
       <c r="D170" t="s">
         <v>14</v>
       </c>
-      <c r="E170">
-        <v>4</v>
+      <c r="E170" t="s">
+        <v>30</v>
       </c>
       <c r="F170">
         <v>2024</v>
@@ -4356,8 +6386,8 @@
       <c r="D171" t="s">
         <v>9</v>
       </c>
-      <c r="E171">
-        <v>11</v>
+      <c r="E171" t="s">
+        <v>31</v>
       </c>
       <c r="F171">
         <v>2023</v>
@@ -4379,8 +6409,8 @@
       <c r="D172" t="s">
         <v>12</v>
       </c>
-      <c r="E172">
-        <v>4</v>
+      <c r="E172" t="s">
+        <v>30</v>
       </c>
       <c r="F172">
         <v>2023</v>
@@ -4402,8 +6432,8 @@
       <c r="D173" t="s">
         <v>17</v>
       </c>
-      <c r="E173">
-        <v>1</v>
+      <c r="E173" t="s">
+        <v>30</v>
       </c>
       <c r="F173">
         <v>2023</v>
@@ -4425,8 +6455,8 @@
       <c r="D174" t="s">
         <v>17</v>
       </c>
-      <c r="E174">
-        <v>1</v>
+      <c r="E174" t="s">
+        <v>30</v>
       </c>
       <c r="F174">
         <v>2023</v>
@@ -4448,8 +6478,8 @@
       <c r="D175" t="s">
         <v>9</v>
       </c>
-      <c r="E175">
-        <v>2</v>
+      <c r="E175" t="s">
+        <v>26</v>
       </c>
       <c r="F175">
         <v>2024</v>
@@ -4471,13 +6501,13 @@
       <c r="D176" t="s">
         <v>9</v>
       </c>
-      <c r="E176">
-        <v>7</v>
+      <c r="E176" t="s">
+        <v>31</v>
       </c>
       <c r="F176">
         <v>2025</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="3">
         <v>14394.35</v>
       </c>
     </row>
@@ -4494,8 +6524,8 @@
       <c r="D177" t="s">
         <v>9</v>
       </c>
-      <c r="E177">
-        <v>8</v>
+      <c r="E177" t="s">
+        <v>31</v>
       </c>
       <c r="F177">
         <v>2024</v>
@@ -4517,8 +6547,8 @@
       <c r="D178" t="s">
         <v>12</v>
       </c>
-      <c r="E178">
-        <v>8</v>
+      <c r="E178" t="s">
+        <v>26</v>
       </c>
       <c r="F178">
         <v>2023</v>
@@ -4540,8 +6570,8 @@
       <c r="D179" t="s">
         <v>16</v>
       </c>
-      <c r="E179">
-        <v>1</v>
+      <c r="E179" t="s">
+        <v>30</v>
       </c>
       <c r="F179">
         <v>2024</v>
@@ -4563,8 +6593,8 @@
       <c r="D180" t="s">
         <v>16</v>
       </c>
-      <c r="E180">
-        <v>8</v>
+      <c r="E180" t="s">
+        <v>30</v>
       </c>
       <c r="F180">
         <v>2024</v>
@@ -4586,13 +6616,13 @@
       <c r="D181" t="s">
         <v>16</v>
       </c>
-      <c r="E181">
-        <v>10</v>
+      <c r="E181" t="s">
+        <v>31</v>
       </c>
       <c r="F181">
         <v>2025</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="3">
         <v>7394.38</v>
       </c>
     </row>
@@ -4609,8 +6639,8 @@
       <c r="D182" t="s">
         <v>14</v>
       </c>
-      <c r="E182">
-        <v>5</v>
+      <c r="E182" t="s">
+        <v>31</v>
       </c>
       <c r="F182">
         <v>2023</v>
@@ -4632,13 +6662,13 @@
       <c r="D183" t="s">
         <v>9</v>
       </c>
-      <c r="E183">
-        <v>10</v>
+      <c r="E183" t="s">
+        <v>31</v>
       </c>
       <c r="F183">
         <v>2025</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="3">
         <v>4918.28</v>
       </c>
     </row>
@@ -4655,8 +6685,8 @@
       <c r="D184" t="s">
         <v>12</v>
       </c>
-      <c r="E184">
-        <v>1</v>
+      <c r="E184" t="s">
+        <v>27</v>
       </c>
       <c r="F184">
         <v>2024</v>
@@ -4678,13 +6708,13 @@
       <c r="D185" t="s">
         <v>14</v>
       </c>
-      <c r="E185">
-        <v>1</v>
+      <c r="E185" t="s">
+        <v>27</v>
       </c>
       <c r="F185">
         <v>2025</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="3">
         <v>9932.43</v>
       </c>
     </row>
@@ -4701,8 +6731,8 @@
       <c r="D186" t="s">
         <v>17</v>
       </c>
-      <c r="E186">
-        <v>1</v>
+      <c r="E186" t="s">
+        <v>27</v>
       </c>
       <c r="F186">
         <v>2023</v>
@@ -4724,8 +6754,8 @@
       <c r="D187" t="s">
         <v>9</v>
       </c>
-      <c r="E187">
-        <v>12</v>
+      <c r="E187" t="s">
+        <v>27</v>
       </c>
       <c r="F187">
         <v>2024</v>
@@ -4747,8 +6777,8 @@
       <c r="D188" t="s">
         <v>9</v>
       </c>
-      <c r="E188">
-        <v>6</v>
+      <c r="E188" t="s">
+        <v>27</v>
       </c>
       <c r="F188">
         <v>2024</v>
@@ -4770,13 +6800,13 @@
       <c r="D189" t="s">
         <v>12</v>
       </c>
-      <c r="E189">
-        <v>12</v>
+      <c r="E189" t="s">
+        <v>27</v>
       </c>
       <c r="F189">
         <v>2025</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="3">
         <v>5451.95</v>
       </c>
     </row>
@@ -4793,8 +6823,8 @@
       <c r="D190" t="s">
         <v>9</v>
       </c>
-      <c r="E190">
-        <v>11</v>
+      <c r="E190" t="s">
+        <v>30</v>
       </c>
       <c r="F190">
         <v>2024</v>
@@ -4816,13 +6846,13 @@
       <c r="D191" t="s">
         <v>9</v>
       </c>
-      <c r="E191">
-        <v>2</v>
+      <c r="E191" t="s">
+        <v>31</v>
       </c>
       <c r="F191">
         <v>2025</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="3">
         <v>1710.33</v>
       </c>
     </row>
@@ -4839,8 +6869,8 @@
       <c r="D192" t="s">
         <v>9</v>
       </c>
-      <c r="E192">
-        <v>7</v>
+      <c r="E192" t="s">
+        <v>31</v>
       </c>
       <c r="F192">
         <v>2023</v>
@@ -4862,13 +6892,13 @@
       <c r="D193" t="s">
         <v>9</v>
       </c>
-      <c r="E193">
-        <v>12</v>
+      <c r="E193" t="s">
+        <v>31</v>
       </c>
       <c r="F193">
         <v>2025</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="3">
         <v>8597.41</v>
       </c>
     </row>
@@ -4885,13 +6915,13 @@
       <c r="D194" t="s">
         <v>12</v>
       </c>
-      <c r="E194">
-        <v>10</v>
+      <c r="E194" t="s">
+        <v>30</v>
       </c>
       <c r="F194">
         <v>2025</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="3">
         <v>13712.67</v>
       </c>
     </row>
@@ -4908,8 +6938,8 @@
       <c r="D195" t="s">
         <v>9</v>
       </c>
-      <c r="E195">
-        <v>3</v>
+      <c r="E195" t="s">
+        <v>30</v>
       </c>
       <c r="F195">
         <v>2023</v>
@@ -4931,8 +6961,8 @@
       <c r="D196" t="s">
         <v>12</v>
       </c>
-      <c r="E196">
-        <v>12</v>
+      <c r="E196" t="s">
+        <v>30</v>
       </c>
       <c r="F196">
         <v>2023</v>
@@ -4954,8 +6984,8 @@
       <c r="D197" t="s">
         <v>12</v>
       </c>
-      <c r="E197">
-        <v>10</v>
+      <c r="E197" t="s">
+        <v>27</v>
       </c>
       <c r="F197">
         <v>2023</v>
@@ -4977,8 +7007,8 @@
       <c r="D198" t="s">
         <v>9</v>
       </c>
-      <c r="E198">
-        <v>1</v>
+      <c r="E198" t="s">
+        <v>27</v>
       </c>
       <c r="F198">
         <v>2024</v>
@@ -5000,8 +7030,8 @@
       <c r="D199" t="s">
         <v>9</v>
       </c>
-      <c r="E199">
-        <v>11</v>
+      <c r="E199" t="s">
+        <v>27</v>
       </c>
       <c r="F199">
         <v>2023</v>
@@ -5023,13 +7053,13 @@
       <c r="D200" t="s">
         <v>9</v>
       </c>
-      <c r="E200">
-        <v>4</v>
+      <c r="E200" t="s">
+        <v>30</v>
       </c>
       <c r="F200">
         <v>2025</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="3">
         <v>3525.37</v>
       </c>
     </row>
@@ -5046,17 +7076,348 @@
       <c r="D201" t="s">
         <v>16</v>
       </c>
-      <c r="E201">
-        <v>10</v>
+      <c r="E201" t="s">
+        <v>30</v>
       </c>
       <c r="F201">
         <v>2023</v>
       </c>
       <c r="G201">
         <v>10729.92</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G204" s="4">
+        <f>SUM(G2:G200)</f>
+        <v>1628778.8799999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E07AF3E-A627-4C05-8165-80865B7B9BC2}">
+  <dimension ref="B5:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="50" width="8" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="77" width="8" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="82" width="8" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="7" bestFit="1" customWidth="1"/>
+    <col min="85" max="100" width="8" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7" bestFit="1" customWidth="1"/>
+    <col min="102" max="109" width="8" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7" bestFit="1" customWidth="1"/>
+    <col min="111" max="126" width="8" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="5" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8" bestFit="1" customWidth="1"/>
+    <col min="129" max="131" width="9" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="8" bestFit="1" customWidth="1"/>
+    <col min="133" max="134" width="9" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="8" bestFit="1" customWidth="1"/>
+    <col min="136" max="168" width="9" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="6" bestFit="1" customWidth="1"/>
+    <col min="170" max="174" width="9" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="8" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="8" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="9" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="8" bestFit="1" customWidth="1"/>
+    <col min="180" max="194" width="9" bestFit="1" customWidth="1"/>
+    <col min="195" max="196" width="8" bestFit="1" customWidth="1"/>
+    <col min="197" max="202" width="9" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>2024</v>
+      </c>
+      <c r="E6">
+        <v>2025</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>84263.24</v>
+      </c>
+      <c r="D7" s="4">
+        <v>212713.00000000003</v>
+      </c>
+      <c r="E7" s="4">
+        <v>189930.47</v>
+      </c>
+      <c r="F7" s="4">
+        <v>486906.71000000008</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>98315</v>
+      </c>
+      <c r="D8" s="4">
+        <v>82700.160000000003</v>
+      </c>
+      <c r="E8" s="4">
+        <v>93044.03</v>
+      </c>
+      <c r="F8" s="4">
+        <v>274059.19</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>105957.08000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>105977.64</v>
+      </c>
+      <c r="E9" s="4">
+        <v>51365.52</v>
+      </c>
+      <c r="F9" s="4">
+        <v>263300.24000000005</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>103642.27000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>209574.44000000006</v>
+      </c>
+      <c r="E10" s="4">
+        <v>84474.16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>397690.87000000011</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4">
+        <v>121526.34999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>46373.69</v>
+      </c>
+      <c r="E11" s="4">
+        <v>49651.75</v>
+      </c>
+      <c r="F11" s="4">
+        <v>217551.78999999998</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>513703.94</v>
+      </c>
+      <c r="D12" s="4">
+        <v>657338.93000000017</v>
+      </c>
+      <c r="E12" s="4">
+        <v>468465.93000000005</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1639508.8000000003</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>